--- a/excel/4/Seattle Macro Model.xlsx
+++ b/excel/4/Seattle Macro Model.xlsx
@@ -5,37 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/github/benofben/the_intelligent_property_investor/excel/4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="2" xr2:uid="{B9208821-648C-EA4E-8576-3AA019253407}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{B9208821-648C-EA4E-8576-3AA019253407}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
     <sheet name="House Price" sheetId="2" r:id="rId2"/>
     <sheet name="Compare" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Compare!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Compare!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Compare!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Compare!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Compare!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Compare!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Compare!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Compare!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Compare!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Compare!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Compare!$C$1</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Compare!$A$1</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Compare!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Compare!$B$1</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Compare!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Compare!$C$1</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">Compare!$C$2:$C$9</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>http://www.deptofnumbers.com/income/washington/seattle/</t>
   </si>
@@ -81,6 +62,12 @@
   </si>
   <si>
     <t>Home Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Annual</t>
   </si>
 </sst>
 </file>
@@ -1512,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F0D8CF-E5DB-7949-A5C3-913497203D83}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1577,7 +1564,7 @@
         <v>73802</v>
       </c>
       <c r="E3" s="2">
-        <f>D3/D2-1</f>
+        <f t="shared" ref="E3:E13" si="0">D3/D2-1</f>
         <v>8.740238691616331E-2</v>
       </c>
     </row>
@@ -1595,7 +1582,7 @@
         <v>78227</v>
       </c>
       <c r="E4" s="2">
-        <f>D4/D3-1</f>
+        <f t="shared" si="0"/>
         <v>5.995772472290728E-2</v>
       </c>
     </row>
@@ -1613,7 +1600,7 @@
         <v>80990</v>
       </c>
       <c r="E5" s="2">
-        <f>D5/D4-1</f>
+        <f t="shared" si="0"/>
         <v>3.5320285834814058E-2</v>
       </c>
     </row>
@@ -1631,7 +1618,7 @@
         <v>78899</v>
       </c>
       <c r="E6" s="2">
-        <f>D6/D5-1</f>
+        <f t="shared" si="0"/>
         <v>-2.5818002222496639E-2</v>
       </c>
     </row>
@@ -1649,7 +1636,7 @@
         <v>76876</v>
       </c>
       <c r="E7" s="2">
-        <f>D7/D6-1</f>
+        <f t="shared" si="0"/>
         <v>-2.5640375670160531E-2</v>
       </c>
     </row>
@@ -1667,7 +1654,7 @@
         <v>79163</v>
       </c>
       <c r="E8" s="2">
-        <f>D8/D7-1</f>
+        <f t="shared" si="0"/>
         <v>2.9749206514386728E-2</v>
       </c>
     </row>
@@ -1685,7 +1672,7 @@
         <v>80844</v>
       </c>
       <c r="E9" s="2">
-        <f>D9/D8-1</f>
+        <f t="shared" si="0"/>
         <v>2.1234667710925637E-2</v>
       </c>
     </row>
@@ -1703,7 +1690,7 @@
         <v>82774</v>
       </c>
       <c r="E10" s="2">
-        <f>D10/D9-1</f>
+        <f t="shared" si="0"/>
         <v>2.3873138389985726E-2</v>
       </c>
     </row>
@@ -1721,7 +1708,7 @@
         <v>87553</v>
       </c>
       <c r="E11" s="2">
-        <f>D11/D10-1</f>
+        <f t="shared" si="0"/>
         <v>5.7735520815715091E-2</v>
       </c>
       <c r="H11" s="2"/>
@@ -1740,7 +1727,7 @@
         <v>91123</v>
       </c>
       <c r="E12" s="2">
-        <f>D12/D11-1</f>
+        <f t="shared" si="0"/>
         <v>4.0775301817185028E-2</v>
       </c>
       <c r="H12" s="2"/>
@@ -1759,10 +1746,28 @@
         <v>95688</v>
       </c>
       <c r="E13" s="2">
-        <f>D13/D12-1</f>
+        <f t="shared" si="0"/>
         <v>5.0097121473173578E-2</v>
       </c>
       <c r="H13" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <f>D13/D6</f>
+        <v>1.2127910366417824</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16^(1/8)-1</f>
+        <v>2.4408674463982205E-2</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:E13">
@@ -1774,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA0F03F-4902-7E4B-964B-45C986C1EE96}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1834,7 +1839,7 @@
         <v>386000</v>
       </c>
       <c r="C6" s="2">
-        <f>B6/B5-1</f>
+        <f t="shared" ref="C6:C13" si="0">B6/B5-1</f>
         <v>-7.6555023923444931E-2</v>
       </c>
     </row>
@@ -1846,7 +1851,7 @@
         <v>364000</v>
       </c>
       <c r="C7" s="2">
-        <f>B7/B6-1</f>
+        <f t="shared" si="0"/>
         <v>-5.6994818652849721E-2</v>
       </c>
     </row>
@@ -1858,7 +1863,7 @@
         <v>352000</v>
       </c>
       <c r="C8" s="2">
-        <f>B8/B7-1</f>
+        <f t="shared" si="0"/>
         <v>-3.2967032967032961E-2</v>
       </c>
     </row>
@@ -1870,7 +1875,7 @@
         <v>386000</v>
       </c>
       <c r="C9" s="2">
-        <f>B9/B8-1</f>
+        <f t="shared" si="0"/>
         <v>9.6590909090909172E-2</v>
       </c>
     </row>
@@ -1882,7 +1887,7 @@
         <v>427000</v>
       </c>
       <c r="C10" s="2">
-        <f>B10/B9-1</f>
+        <f t="shared" si="0"/>
         <v>0.10621761658031081</v>
       </c>
     </row>
@@ -1894,7 +1899,7 @@
         <v>459000</v>
       </c>
       <c r="C11" s="2">
-        <f>B11/B10-1</f>
+        <f t="shared" si="0"/>
         <v>7.4941451990632402E-2</v>
       </c>
     </row>
@@ -1906,7 +1911,7 @@
         <v>498000</v>
       </c>
       <c r="C12" s="2">
-        <f>B12/B11-1</f>
+        <f t="shared" si="0"/>
         <v>8.4967320261437829E-2</v>
       </c>
     </row>
@@ -1918,8 +1923,23 @@
         <v>619000</v>
       </c>
       <c r="C13" s="2">
-        <f>B13/B12-1</f>
+        <f t="shared" si="0"/>
         <v>0.24297188755020072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f>B13/B6</f>
+        <v>1.6036269430051813</v>
+      </c>
+      <c r="C16" s="2">
+        <f>B16^(1/8)-1</f>
+        <v>6.0810764472768453E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6634D6-C14B-C443-AC33-90387CECF8E1}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
